--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Диана\Documents\GitHub\econom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBA0E3E-87BD-433D-8F1D-359E6200A42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826DA664-5FB0-450C-87FE-DC9A4384EABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="245">
   <si>
     <t xml:space="preserve"> OLS Regression Results</t>
   </si>
@@ -757,6 +757,9 @@
   </si>
   <si>
     <t>2984.662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">можем его выкинуть потому что там местами данные косяные </t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1683,7 +1686,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -1797,8 +1800,11 @@
       <c r="G37" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -1821,7 +1827,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -1913,7 +1919,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -1959,22 +1965,22 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>5</v>
       </c>
